--- a/tags.xlsx
+++ b/tags.xlsx
@@ -14,17 +14,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Element</t>
   </si>
   <si>
+    <t>amazon ecr</t>
+  </si>
+  <si>
+    <t>amazon eks</t>
+  </si>
+  <si>
     <t>aws secret manager</t>
   </si>
   <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>github action</t>
+  </si>
+  <si>
     <t>mysql</t>
   </si>
   <si>
+    <t>nexus</t>
+  </si>
+  <si>
     <t>nginx</t>
   </si>
   <si>
@@ -43,6 +58,15 @@
     <t>X</t>
   </si>
   <si>
+    <t>Amazon ECR Container Registry</t>
+  </si>
+  <si>
+    <t>Amazon EKS Container Platform</t>
+  </si>
+  <si>
+    <t>Container Platform Pull</t>
+  </si>
+  <si>
     <t>Backend</t>
   </si>
   <si>
@@ -55,19 +79,55 @@
     <t>Database</t>
   </si>
   <si>
+    <t>Development Client</t>
+  </si>
+  <si>
+    <t>Sourcecode Repository Traffic</t>
+  </si>
+  <si>
+    <t>Container Registry Traffic</t>
+  </si>
+  <si>
+    <t>Container Platform Traffic</t>
+  </si>
+  <si>
+    <t>Build Pipeline Traffic</t>
+  </si>
+  <si>
+    <t>Artifact Registry Traffic</t>
+  </si>
+  <si>
     <t>Frontend</t>
   </si>
   <si>
     <t>User Traffic</t>
   </si>
   <si>
+    <t>Nexus Artifact Registry</t>
+  </si>
+  <si>
+    <t>github Sourcecode Repository</t>
+  </si>
+  <si>
+    <t>github action Build Pipeline</t>
+  </si>
+  <si>
     <t>Configuration Secrets</t>
   </si>
   <si>
+    <t>Deployment</t>
+  </si>
+  <si>
     <t>Greetings</t>
   </si>
   <si>
+    <t>Sourcecode</t>
+  </si>
+  <si>
     <t>Trust Boundary</t>
+  </si>
+  <si>
+    <t>Amazon EKS Runtime</t>
   </si>
   <si>
     <t>EKS</t>
@@ -439,6 +499,11 @@
     <col customWidth="true" max="5" min="5" width="35"/>
     <col customWidth="true" max="6" min="6" width="35"/>
     <col customWidth="true" max="7" min="7" width="35"/>
+    <col customWidth="true" max="8" min="8" width="35"/>
+    <col customWidth="true" max="9" min="9" width="35"/>
+    <col customWidth="true" max="10" min="10" width="35"/>
+    <col customWidth="true" max="11" min="11" width="35"/>
+    <col customWidth="true" max="12" min="12" width="35"/>
     <col customWidth="true" max="1" min="1" width="60"/>
   </cols>
   <sheetData>
@@ -464,49 +529,79 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -514,38 +609,51 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -553,21 +661,33 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -575,10 +695,15 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -586,10 +711,15 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -597,6 +727,311 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>
